--- a/admin/test_cases.xlsx
+++ b/admin/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivercairns/Desktop/code/WeightOfEvidenceDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0750E92-41B3-8F44-9728-2C746EF25FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE8637F-B46B-8D4D-8505-F793FD357224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" activeTab="2" xr2:uid="{762E3304-FB65-904E-81F4-911B3579DB61}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="5" xr2:uid="{762E3304-FB65-904E-81F4-911B3579DB61}"/>
   </bookViews>
   <sheets>
     <sheet name="single_var_decision_tree" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="best_split" sheetId="3" r:id="rId3"/>
     <sheet name="woe_scaler" sheetId="4" r:id="rId4"/>
     <sheet name="fit&amp;transform" sheetId="5" r:id="rId5"/>
+    <sheet name="gini example" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>y1</t>
   </si>
@@ -55,6 +56,12 @@
     <t>y</t>
   </si>
   <si>
+    <t>gini_baseline</t>
+  </si>
+  <si>
+    <t>p_baseline</t>
+  </si>
+  <si>
     <t>p_total</t>
   </si>
   <si>
@@ -104,14 +111,43 @@
   </si>
   <si>
     <t>X_woe</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Gini unsplit</t>
+  </si>
+  <si>
+    <t>Gini left</t>
+  </si>
+  <si>
+    <t>Gini Right</t>
+  </si>
+  <si>
+    <t>Gini split</t>
+  </si>
+  <si>
+    <t>X changed?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,8 +160,22 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +188,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,14 +209,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,15 +740,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB5FEDC-BD8C-104F-AC7C-B5B7693E67BB}">
-  <dimension ref="B2:M14"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -609,37 +756,43 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -686,8 +839,20 @@
         <f>NOT(B3=B2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f>SUM($C$3:$C$14)/COUNT($C$3:$C$14)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O3">
+        <f>1-(N3*N3)-((1-N3)*(1-N3))</f>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P3" t="e">
+        <f>O3-L3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -734,8 +899,20 @@
         <f t="shared" ref="M4:M14" si="5">NOT(B4=B3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="6">SUM($C$3:$C$14)/COUNT($C$3:$C$14)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="7">1-(N4*N4)-((1-N4)*(1-N4))</f>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P14" si="8">O4-L4</f>
+        <v>6.1868686868686795E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -763,7 +940,7 @@
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I14" si="6">(SUM($C$3:$C$14)-(H5*F5))/(G5)</f>
+        <f t="shared" ref="I5:I14" si="9">(SUM($C$3:$C$14)-(H5*F5))/(G5)</f>
         <v>0.6</v>
       </c>
       <c r="J5">
@@ -782,8 +959,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777124E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -811,7 +1000,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J6">
@@ -830,8 +1019,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -859,7 +1060,7 @@
         <v>0.25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="J7">
@@ -878,8 +1079,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>0.11111111111111105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -907,7 +1120,7 @@
         <v>0.2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J8">
@@ -926,8 +1139,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>0.2099206349206349</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
@@ -955,7 +1180,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J9">
@@ -974,8 +1199,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>0.12500000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1003,7 +1240,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="J10">
@@ -1022,8 +1259,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>6.7063492063491992E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>3</v>
       </c>
@@ -1051,7 +1300,7 @@
         <v>0.5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="J11">
@@ -1070,8 +1319,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1099,7 +1360,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J12">
@@ -1118,8 +1379,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>4.6296296296295947E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1147,7 +1420,7 @@
         <v>0.5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J13">
@@ -1166,8 +1439,20 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>6.9444444444444364E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>20</v>
       </c>
@@ -1195,7 +1480,7 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J14">
@@ -1213,6 +1498,18 @@
       <c r="M14" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.48611111111111105</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>3.1565656565656464E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1255,12 +1552,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1273,7 +1570,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1285,7 +1582,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1298,7 +1595,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1310,7 +1607,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1322,7 +1619,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1334,7 +1631,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1346,7 +1643,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1358,7 +1655,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1370,7 +1667,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1382,7 +1679,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1394,7 +1691,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1406,18 +1703,18 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <f>SUMIF($B$3:$B$14,B18,$C$3:$C$14)</f>
@@ -1434,7 +1731,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C20" si="1">SUMIF($B$3:$B$14,B19,$C$3:$C$14)</f>
@@ -1451,7 +1748,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -1464,6 +1761,324 @@
       <c r="E20">
         <f t="shared" si="2"/>
         <v>0.69314718055994506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F073969-4A60-C44D-8440-645DE769F71D}">
+  <dimension ref="B3:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="H6" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.44444444444444431</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.4621212121212121</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.39610389610389612</v>
+      </c>
+      <c r="H8" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.31999999999999984</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.29696969696969683</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.44444444444444431</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.3199999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.38787878787878777</v>
+      </c>
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.48979591836734698</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.44805194805194809</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.48484848484848481</v>
+      </c>
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="H13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="H14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.49586776859504139</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
